--- a/src/test/resources/CustomerDataRead.xlsx
+++ b/src/test/resources/CustomerDataRead.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tools\Selenium\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RajawatSL\IdeaProjects\AdminDemoUIAutomation1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,9 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,61 +435,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.7109375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -497,43 +498,43 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2" s="2">
         <v>12</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="0">
+      <c r="M2">
         <v>12.3</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -542,6 +543,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -549,51 +551,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.140625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
